--- a/18-03-2021/Train_Data_New.xlsx
+++ b/18-03-2021/Train_Data_New.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Department1" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="Department3" sheetId="3" r:id="rId3"/>
     <sheet name="Department4" sheetId="4" r:id="rId4"/>
     <sheet name="Department5" sheetId="5" r:id="rId5"/>
+    <sheet name="Mastersheet" sheetId="6" r:id="rId6"/>
+    <sheet name="Mastersheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="227">
   <si>
     <t>TRAIN_NUMBER</t>
   </si>
@@ -698,6 +700,12 @@
   </si>
   <si>
     <t>Electric Engine</t>
+  </si>
+  <si>
+    <t>Total number of rows</t>
+  </si>
+  <si>
+    <t>Total number of columns</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1196,7 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J40" ca="1" si="0">RANDBETWEEN(18,60)</f>
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1221,7 +1229,7 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1254,7 +1262,7 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1287,7 +1295,7 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1320,7 +1328,7 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1353,7 +1361,7 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1386,7 +1394,7 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1419,7 +1427,7 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1452,7 +1460,7 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1485,7 +1493,7 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1518,7 +1526,7 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1551,7 +1559,7 @@
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1584,7 +1592,7 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1617,7 +1625,7 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1650,7 +1658,7 @@
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1683,7 +1691,7 @@
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1716,7 +1724,7 @@
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1749,7 +1757,7 @@
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1782,7 +1790,7 @@
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1815,7 +1823,7 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1848,7 +1856,7 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1881,7 +1889,7 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1914,7 +1922,7 @@
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1947,7 +1955,7 @@
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1980,7 +1988,7 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2013,7 +2021,7 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2046,7 +2054,7 @@
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2079,7 +2087,7 @@
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2112,7 +2120,7 @@
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2145,7 +2153,7 @@
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2178,7 +2186,7 @@
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2211,7 +2219,7 @@
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2244,7 +2252,7 @@
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2277,7 +2285,7 @@
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2310,7 +2318,7 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2343,7 +2351,7 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2376,7 +2384,7 @@
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2409,7 +2417,7 @@
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2442,7 +2450,7 @@
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -6025,7 +6033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -7206,4 +7214,421 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.28819444444444442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.52222222222222225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f ca="1">RANDBETWEEN(18,60)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28">
+        <v>7090808906</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>197</v>
+      </c>
+      <c r="B32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33">
+        <v>2112479990</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>215</v>
+      </c>
+      <c r="B39">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>216</v>
+      </c>
+      <c r="B40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>217</v>
+      </c>
+      <c r="B41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>218</v>
+      </c>
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>221</v>
+      </c>
+      <c r="B45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>